--- a/SOICT_Statistic_For_2024_Dataset.xlsx
+++ b/SOICT_Statistic_For_2024_Dataset.xlsx
@@ -2271,11 +2271,11 @@
       </c>
       <c r="G3" s="13">
         <f>COUNTIF(Table1_2[Ranking],"&lt;=1")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H8" si="1">G3/SUM($G$3:$G$8)*100</f>
-        <v>33.84615385</v>
+        <v>38.46153846</v>
       </c>
     </row>
     <row r="4">
@@ -2297,11 +2297,11 @@
       <c r="G4" s="13">
         <f>COUNTIFS(Table1_2[Ranking], "&gt;1", Table1_2[Ranking], "&lt;=5")
 </f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
-        <v>29.23076923</v>
+        <v>30.76923077</v>
       </c>
     </row>
     <row r="5">
@@ -2323,11 +2323,11 @@
       <c r="G5" s="13">
         <f>COUNTIFS(Table1_2[Ranking], "&gt;5", Table1_2[Ranking], "&lt;=10")
 </f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>7.692307692</v>
+        <v>4.615384615</v>
       </c>
     </row>
     <row r="6">
@@ -2341,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="9">
-        <v>79.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>25</v>
@@ -2349,11 +2349,11 @@
       <c r="G6" s="13">
         <f>COUNTIFS(Table1_2[Ranking], "&gt;10", Table1_2[Ranking], "&lt;=20")
 </f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>6.153846154</v>
+        <v>21.53846154</v>
       </c>
     </row>
     <row r="7">
@@ -2367,7 +2367,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="9">
-        <v>48.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>29</v>
@@ -2375,11 +2375,11 @@
       <c r="G7" s="13">
         <f>COUNTIFS(Table1_2[Ranking], "&gt;20", Table1_2[Ranking], "&lt;=50")
 </f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>9.230769231</v>
+        <v>3.076923077</v>
       </c>
     </row>
     <row r="8">
@@ -2401,11 +2401,11 @@
       <c r="G8" s="13">
         <f>COUNTIFS(Table1_2[Ranking], "&gt;50", Table1_2[Ranking], "&lt;=100")
 </f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>13.84615385</v>
+        <v>1.538461538</v>
       </c>
     </row>
     <row r="9">
@@ -2419,7 +2419,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="9">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -2461,7 +2461,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="9">
-        <v>95.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
@@ -2489,7 +2489,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="9">
-        <v>38.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -2545,7 +2545,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="9">
-        <v>93.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -2587,7 +2587,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -2629,7 +2629,7 @@
         <v>81</v>
       </c>
       <c r="D24" s="9">
-        <v>83.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
@@ -2671,7 +2671,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="9">
-        <v>98.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="9">
-        <v>87.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -2783,7 +2783,7 @@
         <v>113</v>
       </c>
       <c r="D35" s="9">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
@@ -2909,7 +2909,7 @@
         <v>140</v>
       </c>
       <c r="D44" s="9">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
@@ -2979,7 +2979,7 @@
         <v>155</v>
       </c>
       <c r="D49" s="9">
-        <v>86.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="50">
@@ -3091,7 +3091,7 @@
         <v>179</v>
       </c>
       <c r="D57" s="9">
-        <v>35.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="58">
@@ -3147,7 +3147,7 @@
         <v>191</v>
       </c>
       <c r="D61" s="9">
-        <v>89.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="62">
@@ -3161,7 +3161,7 @@
         <v>194</v>
       </c>
       <c r="D62" s="9">
-        <v>43.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="63">
@@ -3175,7 +3175,7 @@
         <v>197</v>
       </c>
       <c r="D63" s="9">
-        <v>45.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="64">
@@ -3189,7 +3189,7 @@
         <v>199</v>
       </c>
       <c r="D64" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -3203,7 +3203,7 @@
         <v>202</v>
       </c>
       <c r="D65" s="9">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
